--- a/docs/Tableau_Competences.xlsx
+++ b/docs/Tableau_Competences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2 EME ANNEE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Porte-Folio3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -167,6 +167,27 @@
   </si>
   <si>
     <t xml:space="preserve">Projet de recréation de Netflix avec une bdd en php (phpmyadmin,xampp) </t>
+  </si>
+  <si>
+    <t>Audit et analyse de sites web</t>
+  </si>
+  <si>
+    <t>Sécurisation du site (HTTPS + SSL)</t>
+  </si>
+  <si>
+    <t>Responsive design (tablette/mobile, header mobile)</t>
+  </si>
+  <si>
+    <t>Amélioration UX/UI (CTA, FAQ, études de cas, hover)</t>
+  </si>
+  <si>
+    <t>Résultat : scores Lighthouse &gt; 90</t>
+  </si>
+  <si>
+    <t>Correction anomalies (images, cohérence)</t>
+  </si>
+  <si>
+    <t>Collaboration client (réunion, recueil retours, modifications)</t>
   </si>
 </sst>
 </file>
@@ -176,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -238,6 +259,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -352,51 +378,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
@@ -512,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -541,17 +522,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -568,39 +543,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,29 +588,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,10 +917,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -958,63 +933,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1022,7 +997,7 @@
       <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1046,23 +1021,23 @@
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="I6"/>
@@ -1102,16 +1077,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1153,16 +1128,16 @@
         <v>26</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="22"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1204,14 +1179,14 @@
         <v>32</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="26"/>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="22"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1253,14 +1228,14 @@
         <v>27</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="22" t="s">
         <v>29</v>
       </c>
       <c r="I10"/>
@@ -1304,14 +1279,14 @@
         <v>28</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="22" t="s">
         <v>29</v>
       </c>
       <c r="I11"/>
@@ -1355,14 +1330,14 @@
         <v>31</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="22" t="s">
         <v>30</v>
       </c>
       <c r="I12"/>
@@ -1406,18 +1381,18 @@
         <v>41</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="26" t="s">
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="22" t="s">
         <v>29</v>
       </c>
       <c r="I13"/>
@@ -1457,14 +1432,16 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1502,14 +1479,20 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="26"/>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="22"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1547,14 +1530,20 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="26"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1591,15 +1580,19 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="26"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="22"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1636,17 +1629,21 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1685,19 +1682,19 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="26"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="22"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1736,19 +1733,17 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="26"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1787,17 +1782,19 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="26"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1836,17 +1833,15 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="26" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="22" t="s">
         <v>29</v>
       </c>
       <c r="I22"/>
@@ -1886,20 +1881,16 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="26"/>
+      <c r="A23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1938,17 +1929,17 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="26" t="s">
-        <v>29</v>
-      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1987,19 +1978,17 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="26" t="s">
-        <v>29</v>
-      </c>
+      <c r="C25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2036,19 +2025,19 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="26" t="s">
-        <v>29</v>
-      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="17"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2085,17 +2074,19 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2133,14 +2124,18 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="17"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2178,10 +2173,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="38" t="s">
+        <v>29</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -2223,12 +2222,16 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="38" t="s">
+        <v>29</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
       <c r="I30"/>
@@ -2268,14 +2271,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2303,24 +2306,16 @@
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2358,14 +2353,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2403,14 +2398,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2447,15 +2442,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2492,51 +2487,7 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2565,37 +2516,72 @@
     <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
